--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/9.25因卓教育阶段二项目计划.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/9.25因卓教育阶段二项目计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目说明" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>各阶段任务</t>
   </si>
@@ -90,1460 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因卓教育阶段二UI设计</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/前端WEB开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/后端接口开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(3人)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-  &gt; 学校管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 题库管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.75d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.75d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.75d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 考试管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 推送设置(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 我的消息(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 联调自验等(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17.75h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>36.25d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>43.25d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因卓教育阶段二UI设计</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/前端WEB开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/后端接口开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(3人)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 首页(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 学情管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>29d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 阅卷管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 联调自验等(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>43.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>48d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-因卓教育阶段二卓师Windows服务开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1人)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; Windows服务(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 联调自验等(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因卓教育阶段二后端开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1人)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 系统日志(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.75d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 统计分析(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 新闻视频管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 系统设置(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.25d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 消息推送(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 我的消息(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-因卓教育阶段二测试人员♂（1~2人）
-  &gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1820,6 +366,1472 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期容忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因卓教育阶段二UI设计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/前端WEB开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/后端接口开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3人)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  &gt; 学校管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 题库管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 考试管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 推送设置(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 我的消息(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 联调自验等(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17.75h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36.25d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43.25d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因卓教育阶段二UI设计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/前端WEB开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/后端接口开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3人)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 首页(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 学情管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 阅卷管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 联调自验等(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+因卓教育阶段二卓师Windows服务开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1人)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; Windows服务(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 联调自验等(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因卓教育阶段二后端开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1人)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 系统日志(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 统计分析(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 新闻视频管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 系统设置(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.25d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 消息推送(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 我的消息(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+因卓教育阶段二测试人员♂（1~2人）
+  &gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整项目时间计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2163,7 +2175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2188,15 +2200,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2214,6 +2217,21 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2404,19 +2422,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43023</c:v>
+                  <c:v>43006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43047</c:v>
+                  <c:v>43040</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43070</c:v>
+                  <c:v>43054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43070</c:v>
+                  <c:v>43054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43101</c:v>
+                  <c:v>43092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,7 +2501,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.525000000000002</c:v>
+                  <c:v>28.325000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>47.85</c:v>
@@ -4366,10 +4384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:IW30"/>
+  <dimension ref="B1:IW31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:O26"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -4898,184 +4916,184 @@
       <c r="IW2" s="2"/>
     </row>
     <row r="3" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>20</v>
+      <c r="B3" s="27" t="s">
+        <v>19</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="2:257">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="2"/>
@@ -5320,20 +5338,20 @@
       <c r="IW12" s="2"/>
     </row>
     <row r="13" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="2"/>
@@ -5578,20 +5596,20 @@
       <c r="IW13" s="2"/>
     </row>
     <row r="14" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="2"/>
@@ -5836,20 +5854,20 @@
       <c r="IW14" s="2"/>
     </row>
     <row r="15" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="2"/>
@@ -6094,20 +6112,20 @@
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="2"/>
@@ -6352,20 +6370,20 @@
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="2"/>
@@ -6610,20 +6628,20 @@
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="2"/>
@@ -6868,20 +6886,20 @@
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="2"/>
@@ -7126,20 +7144,20 @@
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="2"/>
@@ -7384,20 +7402,20 @@
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="2"/>
@@ -7642,20 +7660,20 @@
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="2"/>
@@ -7900,20 +7918,20 @@
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="2"/>
@@ -8158,20 +8176,20 @@
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="2"/>
@@ -8416,20 +8434,20 @@
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="2"/>
@@ -8674,20 +8692,20 @@
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
@@ -8708,12 +8726,274 @@
       </c>
     </row>
     <row r="29" spans="2:257" ht="13.8" customHeight="1">
-      <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="2:257" ht="13.8" customHeight="1">
-      <c r="C30" s="3"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="2"/>
+      <c r="BW30" s="2"/>
+      <c r="BX30" s="2"/>
+      <c r="BY30" s="2"/>
+      <c r="BZ30" s="2"/>
+      <c r="CA30" s="2"/>
+      <c r="CB30" s="2"/>
+      <c r="CC30" s="2"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+      <c r="CF30" s="2"/>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="2"/>
+      <c r="CJ30" s="2"/>
+      <c r="CK30" s="2"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="2"/>
+      <c r="CN30" s="2"/>
+      <c r="CO30" s="2"/>
+      <c r="CP30" s="2"/>
+      <c r="CQ30" s="2"/>
+      <c r="CR30" s="2"/>
+      <c r="CS30" s="2"/>
+      <c r="CT30" s="2"/>
+      <c r="CU30" s="2"/>
+      <c r="CV30" s="2"/>
+      <c r="CW30" s="2"/>
+      <c r="CX30" s="2"/>
+      <c r="CY30" s="2"/>
+      <c r="CZ30" s="2"/>
+      <c r="DA30" s="2"/>
+      <c r="DB30" s="2"/>
+      <c r="DC30" s="2"/>
+      <c r="DD30" s="2"/>
+      <c r="DE30" s="2"/>
+      <c r="DF30" s="2"/>
+      <c r="DG30" s="2"/>
+      <c r="DH30" s="2"/>
+      <c r="DI30" s="2"/>
+      <c r="DJ30" s="2"/>
+      <c r="DK30" s="2"/>
+      <c r="DL30" s="2"/>
+      <c r="DM30" s="2"/>
+      <c r="DN30" s="2"/>
+      <c r="DO30" s="2"/>
+      <c r="DP30" s="2"/>
+      <c r="DQ30" s="2"/>
+      <c r="DR30" s="2"/>
+      <c r="DS30" s="2"/>
+      <c r="DT30" s="2"/>
+      <c r="DU30" s="2"/>
+      <c r="DV30" s="2"/>
+      <c r="DW30" s="2"/>
+      <c r="DX30" s="2"/>
+      <c r="DY30" s="2"/>
+      <c r="DZ30" s="2"/>
+      <c r="EA30" s="2"/>
+      <c r="EB30" s="2"/>
+      <c r="EC30" s="2"/>
+      <c r="ED30" s="2"/>
+      <c r="EE30" s="2"/>
+      <c r="EF30" s="2"/>
+      <c r="EG30" s="2"/>
+      <c r="EH30" s="2"/>
+      <c r="EI30" s="2"/>
+      <c r="EJ30" s="2"/>
+      <c r="EK30" s="2"/>
+      <c r="EL30" s="2"/>
+      <c r="EM30" s="2"/>
+      <c r="EN30" s="2"/>
+      <c r="EO30" s="2"/>
+      <c r="EP30" s="2"/>
+      <c r="EQ30" s="2"/>
+      <c r="ER30" s="2"/>
+      <c r="ES30" s="2"/>
+      <c r="ET30" s="2"/>
+      <c r="EU30" s="2"/>
+      <c r="EV30" s="2"/>
+      <c r="EW30" s="2"/>
+      <c r="EX30" s="2"/>
+      <c r="EY30" s="2"/>
+      <c r="EZ30" s="2"/>
+      <c r="FA30" s="2"/>
+      <c r="FB30" s="2"/>
+      <c r="FC30" s="2"/>
+      <c r="FD30" s="2"/>
+      <c r="FE30" s="2"/>
+      <c r="FF30" s="2"/>
+      <c r="FG30" s="2"/>
+      <c r="FH30" s="2"/>
+      <c r="FI30" s="2"/>
+      <c r="FJ30" s="2"/>
+      <c r="FK30" s="2"/>
+      <c r="FL30" s="2"/>
+      <c r="FM30" s="2"/>
+      <c r="FN30" s="2"/>
+      <c r="FO30" s="2"/>
+      <c r="FP30" s="2"/>
+      <c r="FQ30" s="2"/>
+      <c r="FR30" s="2"/>
+      <c r="FS30" s="2"/>
+      <c r="FT30" s="2"/>
+      <c r="FU30" s="2"/>
+      <c r="FV30" s="2"/>
+      <c r="FW30" s="2"/>
+      <c r="FX30" s="2"/>
+      <c r="FY30" s="2"/>
+      <c r="FZ30" s="2"/>
+      <c r="GA30" s="2"/>
+      <c r="GB30" s="2"/>
+      <c r="GC30" s="2"/>
+      <c r="GD30" s="2"/>
+      <c r="GE30" s="2"/>
+      <c r="GF30" s="2"/>
+      <c r="GG30" s="2"/>
+      <c r="GH30" s="2"/>
+      <c r="GI30" s="2"/>
+      <c r="GJ30" s="2"/>
+      <c r="GK30" s="2"/>
+      <c r="GL30" s="2"/>
+      <c r="GM30" s="2"/>
+      <c r="GN30" s="2"/>
+      <c r="GO30" s="2"/>
+      <c r="GP30" s="2"/>
+      <c r="GQ30" s="2"/>
+      <c r="GR30" s="2"/>
+      <c r="GS30" s="2"/>
+      <c r="GT30" s="2"/>
+      <c r="GU30" s="2"/>
+      <c r="GV30" s="2"/>
+      <c r="GW30" s="2"/>
+      <c r="GX30" s="2"/>
+      <c r="GY30" s="2"/>
+      <c r="GZ30" s="2"/>
+      <c r="HA30" s="2"/>
+      <c r="HB30" s="2"/>
+      <c r="HC30" s="2"/>
+      <c r="HD30" s="2"/>
+      <c r="HE30" s="2"/>
+      <c r="HF30" s="2"/>
+      <c r="HG30" s="2"/>
+      <c r="HH30" s="2"/>
+      <c r="HI30" s="2"/>
+      <c r="HJ30" s="2"/>
+      <c r="HK30" s="2"/>
+      <c r="HL30" s="2"/>
+      <c r="HM30" s="2"/>
+      <c r="HN30" s="2"/>
+      <c r="HO30" s="2"/>
+      <c r="HP30" s="2"/>
+      <c r="HQ30" s="2"/>
+      <c r="HR30" s="2"/>
+      <c r="HS30" s="2"/>
+      <c r="HT30" s="2"/>
+      <c r="HU30" s="2"/>
+      <c r="HV30" s="2"/>
+      <c r="HW30" s="2"/>
+      <c r="HX30" s="2"/>
+      <c r="HY30" s="2"/>
+      <c r="HZ30" s="2"/>
+      <c r="IA30" s="2"/>
+      <c r="IB30" s="2"/>
+      <c r="IC30" s="2"/>
+      <c r="ID30" s="2"/>
+      <c r="IE30" s="2"/>
+      <c r="IF30" s="2"/>
+      <c r="IG30" s="2"/>
+      <c r="IH30" s="2"/>
+      <c r="II30" s="2"/>
+      <c r="IJ30" s="2"/>
+      <c r="IK30" s="2"/>
+      <c r="IL30" s="2"/>
+      <c r="IM30" s="2"/>
+      <c r="IN30" s="2"/>
+      <c r="IO30" s="2"/>
+      <c r="IP30" s="2"/>
+      <c r="IQ30" s="2"/>
+      <c r="IR30" s="2"/>
+      <c r="IS30" s="2"/>
+      <c r="IT30" s="2"/>
+      <c r="IU30" s="2"/>
+      <c r="IV30" s="2"/>
+      <c r="IW30" s="2"/>
+    </row>
+    <row r="31" spans="2:257" ht="13.8" customHeight="1">
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8732,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:IW34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:O34"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -8746,580 +9026,580 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>11</v>
+      <c r="B3" s="27" t="s">
+        <v>21</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
@@ -9341,7 +9621,7 @@
   <dimension ref="B1:IX8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -9358,150 +9638,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="2:8" ht="16.05" customHeight="1" thickTop="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="19.05" customHeight="1">
+      <c r="B3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>1</v>
+      <c r="D3" s="11">
+        <v>43006</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>2</v>
+      <c r="E3" s="12">
+        <f>17.75+8</f>
+        <v>25.75</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>10</v>
+      <c r="F3" s="12">
+        <f>E3*1.1</f>
+        <v>28.325000000000003</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>3</v>
+      <c r="G3" s="13">
+        <f t="shared" ref="G3:G7" si="0">DATE(YEAR(D3),MONTH(D3),DAY(D3)+F3)</f>
+        <v>43034</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="19.05" customHeight="1">
-      <c r="B3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="14">
-        <v>43023</v>
-      </c>
-      <c r="E3" s="15">
-        <f>17.75</f>
-        <v>17.75</v>
-      </c>
-      <c r="F3" s="15">
-        <f>E3*1.1</f>
-        <v>19.525000000000002</v>
-      </c>
-      <c r="G3" s="16">
-        <f t="shared" ref="G3:G7" si="0">DATE(YEAR(D3),MONTH(D3),DAY(D3)+F3)</f>
-        <v>43042</v>
-      </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" s="2" customFormat="1" ht="19.05" customHeight="1">
-      <c r="B4" s="24" t="s">
-        <v>16</v>
+      <c r="B4" s="21" t="s">
+        <v>15</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>13</v>
+      <c r="C4" s="24" t="s">
+        <v>12</v>
       </c>
-      <c r="D4" s="14">
-        <v>43047</v>
+      <c r="D4" s="11">
+        <v>43040</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>43.5</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <f>E4*1.1</f>
         <v>47.85</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
-        <v>43094</v>
+        <v>43087</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="31">
+        <v>43101</v>
+      </c>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="19.05" customHeight="1">
-      <c r="B5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14">
-        <v>43070</v>
+      <c r="C5" s="24" t="s">
+        <v>13</v>
       </c>
-      <c r="E5" s="15">
+      <c r="D5" s="11">
+        <v>43054</v>
+      </c>
+      <c r="E5" s="12">
         <v>14</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <f>E5*1.1</f>
         <v>15.400000000000002</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
-        <v>43085</v>
+        <v>43069</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8" s="2" customFormat="1" ht="19.05" customHeight="1">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>18</v>
+      <c r="C6" s="24" t="s">
+        <v>17</v>
       </c>
-      <c r="D6" s="14">
-        <v>43070</v>
+      <c r="D6" s="11">
+        <v>43054</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>12.5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <f>E6*1.1</f>
         <v>13.750000000000002</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>43083</v>
+        <v>43067</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" s="2" customFormat="1" ht="19.05" customHeight="1" thickBot="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>19</v>
+      <c r="C7" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="D7" s="17">
-        <v>43101</v>
+      <c r="D7" s="14">
+        <v>43092</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>28</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <f>E7*1.1</f>
         <v>30.800000000000004</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>43131</v>
+        <v>43122</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="31">
+        <v>43138</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="13.8" customHeight="1" thickTop="1"/>
   </sheetData>
@@ -9518,8 +9804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/9.25因卓教育阶段二项目计划.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/9.25因卓教育阶段二项目计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目说明" sheetId="1" r:id="rId1"/>
@@ -373,1465 +373,1465 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因卓教育阶段二UI设计</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/前端WEB开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/后端接口开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(3人)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-  &gt; 学校管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 题库管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.75d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.75d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.75d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 考试管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 推送设置(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 我的消息(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 联调自验等(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17.75h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>36.25d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>43.25d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因卓教育阶段二UI设计</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/前端WEB开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/后端接口开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(3人)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 首页(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 学情管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>29d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 阅卷管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 联调自验等(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>43.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>48d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-因卓教育阶段二卓师Windows服务开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1人)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; Windows服务(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 联调自验等(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因卓教育阶段二后端开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>♂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1人)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 系统日志(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.75d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 统计分析(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 新闻视频管理(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 系统设置(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.25d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 消息推送(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-  &gt; 我的消息(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  &gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12.5d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-因卓教育阶段二测试人员♂（1~2人）
-  &gt; 总计(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>28d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.09.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调整项目时间计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因卓教育阶段二UI设计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/前端WEB开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/后端接口开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3人)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  &gt; 学校管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 题库管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 考试管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 推送设置(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 我的消息(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 联调自验等(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36.25d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43.25d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因卓教育阶段二UI设计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/前端WEB开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/后端接口开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3人)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 首页(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 学情管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 阅卷管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 联调自验等(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+因卓教育阶段二卓师Windows服务开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1人)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; Windows服务(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 联调自验等(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因卓教育阶段二后端开发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1人)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 系统日志(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.75d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 统计分析(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 新闻视频管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 系统设置(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.25d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 消息推送(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  &gt; 我的消息(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12.5d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+因卓教育阶段二测试人员♂（1~2人）
+  &gt; 总计(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2218,6 +2218,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2225,12 +2231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4916,184 +4916,184 @@
       <c r="IW2" s="2"/>
     </row>
     <row r="3" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="2:257">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="2"/>
@@ -5338,20 +5338,20 @@
       <c r="IW12" s="2"/>
     </row>
     <row r="13" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="2"/>
@@ -5596,20 +5596,20 @@
       <c r="IW13" s="2"/>
     </row>
     <row r="14" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="2"/>
@@ -5854,20 +5854,20 @@
       <c r="IW14" s="2"/>
     </row>
     <row r="15" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="2"/>
@@ -6112,20 +6112,20 @@
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="2"/>
@@ -6370,20 +6370,20 @@
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="2"/>
@@ -6628,20 +6628,20 @@
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="2"/>
@@ -6886,20 +6886,20 @@
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="2"/>
@@ -7144,20 +7144,20 @@
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="2"/>
@@ -7402,20 +7402,20 @@
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="2"/>
@@ -7660,20 +7660,20 @@
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="2"/>
@@ -7918,20 +7918,20 @@
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="2"/>
@@ -8176,20 +8176,20 @@
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="2"/>
@@ -8434,20 +8434,20 @@
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="2"/>
@@ -8692,20 +8692,20 @@
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="2:257" ht="16.05" customHeight="1">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="29" spans="2:257" ht="13.8" customHeight="1">
       <c r="C29" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:257" ht="13.8" customHeight="1">
@@ -9012,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:IW34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -9026,580 +9026,580 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B3" s="27" t="s">
-        <v>21</v>
+      <c r="B3" s="29" t="s">
+        <v>23</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="2:17" ht="16.05" customHeight="1">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
@@ -9665,7 +9665,7 @@
       <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9714,7 +9714,7 @@
         <f t="shared" si="0"/>
         <v>43087</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="28">
         <v>43101</v>
       </c>
     </row>
@@ -9785,7 +9785,7 @@
         <f t="shared" si="0"/>
         <v>43122</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="28">
         <v>43138</v>
       </c>
     </row>
@@ -9804,7 +9804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>

--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/9.25因卓教育阶段二项目计划.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/需求输出/9.25因卓教育阶段二项目计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目说明" sheetId="1" r:id="rId1"/>
@@ -1276,6 +1276,7 @@
         <charset val="134"/>
       </rPr>
       <t>)
+  &gt; 其他管理
   &gt; 联调自验等(</t>
     </r>
     <r>
@@ -9012,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:IW34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:O34"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -9804,7 +9805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
